--- a/docs/wordcontrol_import.xlsx
+++ b/docs/wordcontrol_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Описание" sheetId="3" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Справка" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Справка!$A$1:$D$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Справка!$A$1:$E$48</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="154">
   <si>
     <t>Язык 1</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Источник слов 2</t>
   </si>
   <si>
-    <t>Как в переводе/не требуется</t>
-  </si>
-  <si>
     <t>Система записи написания 1</t>
   </si>
   <si>
@@ -78,12 +75,6 @@
     <t>Система записи произношения 2</t>
   </si>
   <si>
-    <t>kissA</t>
-  </si>
-  <si>
-    <t>кот</t>
-  </si>
-  <si>
     <t>Обозначение</t>
   </si>
   <si>
@@ -240,21 +231,6 @@
     <t>наречие</t>
   </si>
   <si>
-    <t>arvoitus - загадка???</t>
-  </si>
-  <si>
-    <t>defektiivinen - дефектный???</t>
-  </si>
-  <si>
-    <t>deskriptiivinen - описательный???</t>
-  </si>
-  <si>
-    <t>edellinen, edellä - см. выше???</t>
-  </si>
-  <si>
-    <t>ei tuntenut - не знал???</t>
-  </si>
-  <si>
     <t>родительный</t>
   </si>
   <si>
@@ -270,9 +246,6 @@
     <t>прошедшее</t>
   </si>
   <si>
-    <t>inkeroismurteinen???</t>
-  </si>
-  <si>
     <t>(Soikkolan and Hevaan information for judging), as opposed to the Lower Luga expression</t>
   </si>
   <si>
@@ -285,9 +258,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>itkuvirsi, itkuvirrestä???</t>
-  </si>
-  <si>
     <t>союз</t>
   </si>
   <si>
@@ -306,9 +276,6 @@
     <t>ограничение (чего?)</t>
   </si>
   <si>
-    <t>loitsussa, loitsusta - из обрядов???</t>
-  </si>
-  <si>
     <t>числительное</t>
   </si>
   <si>
@@ -354,9 +321,6 @@
     <t>возвратный</t>
   </si>
   <si>
-    <t>kansanrunouden - из фольклёра???</t>
-  </si>
-  <si>
     <t>sananparsi - пословица???</t>
   </si>
   <si>
@@ -369,9 +333,6 @@
     <t>tavallinen - обычный???</t>
   </si>
   <si>
-    <t>uskomus - из мифов???</t>
-  </si>
-  <si>
     <t>глагол</t>
   </si>
   <si>
@@ -426,7 +387,100 @@
     <t>происхождение</t>
   </si>
   <si>
-    <t>tav. Saarovesta tarkistettu tieto</t>
+    <t>Nirvi</t>
+  </si>
+  <si>
+    <t>Как в переводе</t>
+  </si>
+  <si>
+    <t>Не требуется</t>
+  </si>
+  <si>
+    <t>Финский</t>
+  </si>
+  <si>
+    <t>Сойкинский</t>
+  </si>
+  <si>
+    <t>Литературный</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Финская орфография</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>conj</t>
+  </si>
+  <si>
+    <t>mutta</t>
+  </si>
+  <si>
+    <t>kun taas</t>
+  </si>
+  <si>
+    <t>aBi | api (ala)</t>
+  </si>
+  <si>
+    <t>apu</t>
+  </si>
+  <si>
+    <t>ižora</t>
+  </si>
+  <si>
+    <t>inkerikot</t>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <t>Англ.</t>
+  </si>
+  <si>
+    <t>дефектный</t>
+  </si>
+  <si>
+    <t>глагол или имя</t>
+  </si>
+  <si>
+    <t>deskriptiivinen</t>
+  </si>
+  <si>
+    <t>описательный или звукподражательный</t>
+  </si>
+  <si>
+    <t>вышеупомянутый, см. выше</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>ei tuntenut</t>
+  </si>
+  <si>
+    <t>информант не знал</t>
+  </si>
+  <si>
+    <t>inkeroismurteinen</t>
+  </si>
+  <si>
+    <t>плач</t>
+  </si>
+  <si>
+    <t>загадка</t>
+  </si>
+  <si>
+    <t>заговор</t>
+  </si>
+  <si>
+    <t>фольклор (руны)</t>
+  </si>
+  <si>
+    <t>поверие</t>
   </si>
 </sst>
 </file>
@@ -452,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -516,10 +576,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -821,86 +887,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="22.42578125" customWidth="1"/>
+    <col min="1" max="4" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -909,18 +983,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="20.28515625" style="3" customWidth="1"/>
+    <col min="1" max="6" width="24.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -928,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -937,28 +1009,60 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -967,560 +1071,579 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="94.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="6"/>
+      <c r="D48" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D48"/>
+  <autoFilter ref="A1:E48"/>
   <sortState ref="A1:B48">
     <sortCondition ref="A2"/>
   </sortState>

--- a/docs/wordcontrol_import.xlsx
+++ b/docs/wordcontrol_import.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="179">
   <si>
     <t>Язык 1</t>
   </si>
@@ -481,13 +481,88 @@
   </si>
   <si>
     <t>поверие</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>viittaa samanmerkityksiseen sanaan, jonka kohdalla on selitys; sulkeissa se on käänöksen edessä</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>viittaa pääartikkeliin, katasanaan tai samakantaiseen sanaan, kantasanasta yhdyssanan, jonka kohdalla, on lisätietoja, tai päinvastoin, synonyymin tai muuhun läheiseen sanaan.</t>
+  </si>
+  <si>
+    <t>ссылка?</t>
+  </si>
+  <si>
+    <t>то же слово, но на каком?</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>merkkiä käytetään rinnakkaismuotojen välillä</t>
+  </si>
+  <si>
+    <t>параллельные?</t>
+  </si>
+  <si>
+    <t>Erottaa eri paikkakuntien ja kylien esimerkit toisistaan. Saman paikkakunnan eri yhteyksissä saadut esimerkit erotta toisistaan piste (vast. kysymys- tai huutomerkki)</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>разные местности и ???</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Esimerkissä osoittaa poistoa.</t>
+  </si>
+  <si>
+    <t>удаление (в примере)</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>В файле две вкладки. Первая — справочная. В соответствии с указанием в ней будут выставлены настройки массовой загрузки.</t>
+  </si>
+  <si>
+    <t>http://slovari.yandex.ru/%D0%BA%D0%BE%D1%88%D0%BA%D0%B0/%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B4/</t>
+  </si>
+  <si>
+    <t>Вторая — слова и переводы."1" и "2" — это номера языков с первой вкладки.</t>
+  </si>
+  <si>
+    <t>тут ограничением будет "(для лазания на столбы)" или "(электрического крана)".</t>
+  </si>
+  <si>
+    <t>"Написание" — для слова заполняется, если есть официальная орфография. Для ижорского ВСЕГДА пусто.</t>
+  </si>
+  <si>
+    <t>"Произношение" может быть, например, в "учебной", в МФА или просто в той, в которой приведено в источнике. Варианты произношения (или даже написания, такое может быть, если язык имеет несколько литературных норм, как английский) указываются через вертикальную черту. Диалект в скобках (везде одинаково должно быть, например ala и soi).</t>
+  </si>
+  <si>
+    <t>"Часть речи" желательно указывать принятым английским сокращением, но можно и по-русски или по-фински. Главное, чтобы во всём файле было одинаково.</t>
+  </si>
+  <si>
+    <t>"Ограничение перевода" — это, например:</t>
+  </si>
+  <si>
+    <t>vahv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +575,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -565,10 +649,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -586,8 +671,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1071,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,12 +1730,126 @@
       </c>
       <c r="D48" s="4"/>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E48"/>
   <sortState ref="A1:B48">
     <sortCondition ref="A2"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B65" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/wordcontrol_import.xlsx
+++ b/docs/wordcontrol_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="11700"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="20730" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Слова" sheetId="1" r:id="rId1"/>
@@ -43,13 +43,13 @@
     <t>wordformY</t>
   </si>
   <si>
-    <t>wordformN1 | wordformN2</t>
-  </si>
-  <si>
     <t>Параметры перевода</t>
   </si>
   <si>
     <t>[dialect] [usage_constr] comment</t>
+  </si>
+  <si>
+    <t>wordformN1 "short_comment" [themes] | wordformN2 "short_comment" [themes]</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/docs/wordcontrol_import.xlsx
+++ b/docs/wordcontrol_import.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>wordform1 "comment" [gramm_cat] [dialect] [informant] | wordform2 "comment" [gramm_cat] [dialect] [informant]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Параметры лексем</t>
   </si>
@@ -28,28 +25,22 @@
     <t>Другой язык (основной диалект) [система письма @  источник данных]</t>
   </si>
   <si>
-    <t>synt_cat [inflection]</t>
-  </si>
-  <si>
-    <t>wordformM</t>
-  </si>
-  <si>
-    <t>synt_cat</t>
-  </si>
-  <si>
-    <t>wordformX</t>
-  </si>
-  <si>
-    <t>wordformY</t>
-  </si>
-  <si>
-    <t>Параметры перевода</t>
-  </si>
-  <si>
-    <t>[dialect] [usage_constr] comment</t>
-  </si>
-  <si>
-    <t>wordformN1 "short_comment" [themes] | wordformN2 "short_comment" [themes]</t>
+    <t>синтактическая_категория [классификатор_словоизменения]</t>
+  </si>
+  <si>
+    <t>словоформаА1 "комментарий" [грамматическая_категория] [диалект] [информант] | словоформаА2 "комментарий" [грамматическая_категория] [диалект] [информант]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[тема] [диалект] "комментарий_группы": переводА1 [диалект] "комментарий_перевода" | переводА2 [диалект] "комментарий_перевода" </t>
+  </si>
+  <si>
+    <t>синтактическая_категория</t>
+  </si>
+  <si>
+    <t>словоформаБ1</t>
+  </si>
+  <si>
+    <t>переводБ1 | переводБ2</t>
   </si>
 </sst>
 </file>
@@ -83,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,34 +97,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -437,58 +410,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="24.140625" style="2" customWidth="1"/>
+    <col min="1" max="3" width="32.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/docs/wordcontrol_import.xlsx
+++ b/docs/wordcontrol_import.xlsx
@@ -25,9 +25,6 @@
     <t>Другой язык (основной диалект) [система письма @  источник данных]</t>
   </si>
   <si>
-    <t>синтактическая_категория [классификатор_словоизменения]</t>
-  </si>
-  <si>
     <t>словоформаА1 "комментарий" [грамматическая_категория] [диалект] [информант] | словоформаА2 "комментарий" [грамматическая_категория] [диалект] [информант]</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>переводБ1 | переводБ2</t>
+  </si>
+  <si>
+    <t>синтактическая_категория [параметры лексемы] [классификатор_словоизменения]</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,24 +434,24 @@
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/docs/wordcontrol_import.xlsx
+++ b/docs/wordcontrol_import.xlsx
@@ -25,12 +25,6 @@
     <t>Другой язык (основной диалект) [система письма @  источник данных]</t>
   </si>
   <si>
-    <t>словоформаА1 "комментарий" [грамматическая_категория] [диалект] [информант] | словоформаА2 "комментарий" [грамматическая_категория] [диалект] [информант]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[тема] [диалект] "комментарий_группы": переводА1 [диалект] "комментарий_перевода" | переводА2 [диалект] "комментарий_перевода" </t>
-  </si>
-  <si>
     <t>синтактическая_категория</t>
   </si>
   <si>
@@ -41,6 +35,12 @@
   </si>
   <si>
     <t>синтактическая_категория [параметры лексемы] [классификатор_словоизменения]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[тема] [диалект] "комментарий_группы" @ переводА1 [диалект] "комментарий_перевода" | переводА2 [диалект] "комментарий_перевода" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">словоформаА1 [грамматическая_категория] [диалект] [информант]  "комментарий"  | словоформаА2 [грамматическая_категория] [диалект] [информант] "комментарий" </t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,26 +432,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/docs/wordcontrol_import.xlsx
+++ b/docs/wordcontrol_import.xlsx
@@ -34,13 +34,13 @@
     <t>переводБ1 | переводБ2</t>
   </si>
   <si>
-    <t>синтактическая_категория [параметры лексемы] [классификатор_словоизменения]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[тема] [диалект] "комментарий_группы" @ переводА1 [диалект] "комментарий_перевода" | переводА2 [диалект] "комментарий_перевода" </t>
-  </si>
-  <si>
     <t xml:space="preserve">словоформаА1 [грамматическая_категория] [диалект] [информант]  "комментарий"  | словоформаА2 [грамматическая_категория] [диалект] [информант] "комментарий" </t>
+  </si>
+  <si>
+    <t>синтактическая_категория [параметры_лексемы]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[тема] [диалект] "комментарий_группы" @  [параметры_лексемы] переводА1 [диалект] "комментарий_перевода" | [параметры_лексемы] переводА2 [диалект] "комментарий_перевода" </t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,15 +432,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/docs/wordcontrol_import.xlsx
+++ b/docs/wordcontrol_import.xlsx
@@ -40,7 +40,7 @@
     <t>синтактическая_категория [параметры_лексемы]</t>
   </si>
   <si>
-    <t xml:space="preserve">[тема] [диалект] "комментарий_группы" @  [параметры_лексемы] переводА1 [диалект] "комментарий_перевода" | [параметры_лексемы] переводА2 [диалект] "комментарий_перевода" </t>
+    <t xml:space="preserve">[тема] [диалект] "комментарий_группы" @  [параметры_лексемы] переводА1 [диалект_перевода] "комментарий_перевода" | [параметры_лексемы] переводА2 [диалект_перевода] "комментарий_перевода" </t>
   </si>
 </sst>
 </file>

--- a/docs/wordcontrol_import.xlsx
+++ b/docs/wordcontrol_import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Параметры лексем</t>
   </si>
@@ -28,12 +28,6 @@
     <t>синтактическая_категория</t>
   </si>
   <si>
-    <t>словоформаБ1</t>
-  </si>
-  <si>
-    <t>переводБ1 | переводБ2</t>
-  </si>
-  <si>
     <t xml:space="preserve">словоформаА1 [грамматическая_категория] [диалект] [информант]  "комментарий"  | словоформаА2 [грамматическая_категория] [диалект] [информант] "комментарий" </t>
   </si>
   <si>
@@ -41,6 +35,19 @@
   </si>
   <si>
     <t xml:space="preserve">[тема] [диалект] "комментарий_группы" @  [параметры_лексемы] переводА1 [диалект_перевода] "комментарий_перевода" | [параметры_лексемы] переводА2 [диалект_перевода] "комментарий_перевода" </t>
+  </si>
+  <si>
+    <t>Расширенный комментарий</t>
+  </si>
+  <si>
+    <t>словоформаБ1 *1</t>
+  </si>
+  <si>
+    <t>переводБ1 | переводБ2 *2</t>
+  </si>
+  <si>
+    <t>*1: Расширенный комментарий
+*2: Расширенный комментарий</t>
   </si>
 </sst>
 </file>
@@ -410,18 +417,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="32.5703125" style="2" customWidth="1"/>
+    <col min="1" max="4" width="32.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,27 +438,33 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/docs/wordcontrol_import.xlsx
+++ b/docs/wordcontrol_import.xlsx
@@ -19,12 +19,6 @@
     <t>Параметры лексем</t>
   </si>
   <si>
-    <t>Переводимый язык (основной диалект) [система письма @ источник данных]</t>
-  </si>
-  <si>
-    <t>Другой язык (основной диалект) [система письма @  источник данных]</t>
-  </si>
-  <si>
     <t>синтактическая_категория</t>
   </si>
   <si>
@@ -48,6 +42,12 @@
   <si>
     <t>*1: Расширенный комментарий
 *2: Расширенный комментарий</t>
+  </si>
+  <si>
+    <t>Переводимый язык (основной диалект) [система письма] @ источник данных | обработка</t>
+  </si>
+  <si>
+    <t>Другой язык (основной диалект) [система письма] @  источник данных | обработка</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,38 +433,38 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/docs/wordcontrol_import.xlsx
+++ b/docs/wordcontrol_import.xlsx
@@ -44,10 +44,10 @@
 *2: Расширенный комментарий</t>
   </si>
   <si>
-    <t>Переводимый язык (основной диалект) [система письма] @ источник данных | обработка</t>
-  </si>
-  <si>
-    <t>Другой язык (основной диалект) [система письма] @  источник данных | обработка</t>
+    <t>Переводимый язык (основной диалект) [система письма] | обработка</t>
+  </si>
+  <si>
+    <t>Другой язык (основной диалект) [система письма] | обработка</t>
   </si>
 </sst>
 </file>

--- a/docs/wordcontrol_import.xlsx
+++ b/docs/wordcontrol_import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Параметры лексем</t>
   </si>
@@ -44,10 +44,16 @@
 *2: Расширенный комментарий</t>
   </si>
   <si>
-    <t>Переводимый язык (основной диалект) [система письма] | обработка</t>
-  </si>
-  <si>
-    <t>Другой язык (основной диалект) [система письма] | обработка</t>
+    <t>Переводимый язык (основной диалект) [система письма]</t>
+  </si>
+  <si>
+    <t>словоформаА1 | словоформаА2</t>
+  </si>
+  <si>
+    <t>словоформаБ1</t>
+  </si>
+  <si>
+    <t>Другой язык (основной диалект) [система письма]</t>
   </si>
 </sst>
 </file>
@@ -417,18 +423,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="32.5703125" style="2" customWidth="1"/>
+    <col min="1" max="5" width="32.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,13 +442,16 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -450,10 +459,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -461,9 +473,12 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/docs/wordcontrol_import.xlsx
+++ b/docs/wordcontrol_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="20730" windowHeight="11640"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="20730" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Слова" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Параметры лексем</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Другой язык (основной диалект) [система письма]</t>
+  </si>
+  <si>
+    <t>Переводимый язык (основной диалект) [другая система письма]</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +437,7 @@
     <col min="1" max="5" width="32.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +445,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
